--- a/SampleData/HolidayCalendar.xlsx
+++ b/SampleData/HolidayCalendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFurugen\Documents\MyApps\Reveal-Samples\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A59156-9FCE-48B8-9AD4-2D217CBF67EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674A6B8C-814C-44F8-9FA1-A4EAD1567CF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="16290" windowHeight="9030" xr2:uid="{503295CE-6697-4394-A4A6-49D3C5D08074}"/>
+    <workbookView xWindow="32385" yWindow="2235" windowWidth="7395" windowHeight="11145" xr2:uid="{503295CE-6697-4394-A4A6-49D3C5D08074}"/>
   </bookViews>
   <sheets>
     <sheet name="祝日カレンダー" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
   <si>
     <t>祝日</t>
     <rPh sb="0" eb="2">
@@ -482,7 +482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5650669A-DD81-42EF-A9F2-688EBE800C89}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
